--- a/mes-prm-core/表结构设计/巡检任务执行情况/巡检任务执行情况_魏建巍.xlsx
+++ b/mes-prm-core/表结构设计/巡检任务执行情况/巡检任务执行情况_魏建巍.xlsx
@@ -877,7 +877,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1238,7 +1238,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/mes-prm-core/表结构设计/巡检任务执行情况/巡检任务执行情况_魏建巍.xlsx
+++ b/mes-prm-core/表结构设计/巡检任务执行情况/巡检任务执行情况_魏建巍.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="3828" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="3830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="巡检任务执行主表" sheetId="4" r:id="rId1"/>
     <sheet name="巡检任务执行子表 " sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="106">
   <si>
     <t>数据库表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,6 +408,17 @@
   </si>
   <si>
     <t>PROJECT_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POLLING_RESULT</t>
+  </si>
+  <si>
+    <t>巡检结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：不合格:1：合格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,12 +891,12 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
   </cols>
@@ -1032,7 +1043,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="86.4">
+    <row r="11" spans="1:6" ht="84">
       <c r="A11" s="3" t="s">
         <v>101</v>
       </c>
@@ -1235,20 +1246,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -1425,7 +1436,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="12.5" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>92</v>
       </c>
@@ -1439,68 +1450,70 @@
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="12.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" s="2" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>11</v>
@@ -1511,45 +1524,45 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1557,13 +1570,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1571,13 +1584,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1585,13 +1598,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1599,13 +1612,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1613,17 +1626,31 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/mes-prm-core/表结构设计/巡检任务执行情况/巡检任务执行情况_魏建巍.xlsx
+++ b/mes-prm-core/表结构设计/巡检任务执行情况/巡检任务执行情况_魏建巍.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F16DBDE0-C24B-4C80-8FEB-9CED2CE05081}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="3830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="3828" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="巡检任务执行主表" sheetId="4" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="127">
   <si>
     <t>数据库表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,14 +420,98 @@
   </si>
   <si>
     <t>0：不合格:1：合格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEAM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIFT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPTID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPTID_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班次名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECTID_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡检项目编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERRDESCRIBE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2 (300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2 (300)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDBVALUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,7 +686,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -643,7 +728,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -675,9 +760,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -709,6 +812,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -884,24 +1005,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,7 +1033,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -921,7 +1042,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -941,7 +1062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -959,7 +1080,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -973,7 +1094,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>93</v>
       </c>
@@ -987,7 +1108,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>94</v>
       </c>
@@ -1001,7 +1122,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
@@ -1015,7 +1136,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>96</v>
       </c>
@@ -1029,7 +1150,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>91</v>
       </c>
@@ -1043,118 +1164,114 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="84">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>11</v>
@@ -1163,68 +1280,72 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>15</v>
@@ -1232,6 +1353,90 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1245,24 +1450,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1478,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1282,7 +1487,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>47</v>
       </c>
@@ -1302,7 +1507,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -1320,7 +1525,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>75</v>
       </c>
@@ -1334,7 +1539,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>80</v>
       </c>
@@ -1348,7 +1553,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>97</v>
       </c>
@@ -1362,172 +1567,172 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="12.5" customHeight="1">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="12.5" customHeight="1">
+    <row r="14" spans="1:6" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
+      <c r="F15" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1">
-      <c r="A18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>11</v>
@@ -1536,44 +1741,40 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>11</v>
@@ -1582,26 +1783,30 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>15</v>
@@ -1610,12 +1815,12 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>11</v>
@@ -1624,26 +1829,26 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>15</v>
@@ -1651,6 +1856,48 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
